--- a/teaching/traditional_assets/database/data/switzerland/switzerland_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0246</v>
+        <v>0.0183</v>
       </c>
       <c r="E2">
-        <v>0.0451</v>
+        <v>0.03325</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001212185822736635</v>
+        <v>4.946055644264513e-06</v>
       </c>
       <c r="J2">
-        <v>9.981870788259896e-05</v>
+        <v>4.208526961417982e-06</v>
       </c>
       <c r="K2">
-        <v>1223.18</v>
+        <v>1378.5</v>
       </c>
       <c r="L2">
-        <v>0.3293785006462732</v>
+        <v>0.3129256333424135</v>
       </c>
       <c r="M2">
-        <v>655.7483</v>
+        <v>883.3195999999999</v>
       </c>
       <c r="N2">
-        <v>0.0327608786882625</v>
+        <v>0.03216492487856035</v>
       </c>
       <c r="O2">
-        <v>0.536101227946827</v>
+        <v>0.640783170112441</v>
       </c>
       <c r="P2">
-        <v>655.7483</v>
+        <v>883.3195999999999</v>
       </c>
       <c r="Q2">
-        <v>0.0327608786882625</v>
+        <v>0.03216492487856035</v>
       </c>
       <c r="R2">
-        <v>0.536101227946827</v>
+        <v>0.640783170112441</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>24495.7</v>
+        <v>47962.6</v>
       </c>
       <c r="V2">
-        <v>1.223793727081064</v>
+        <v>1.746495182468994</v>
       </c>
       <c r="W2">
-        <v>0.06147099553777505</v>
+        <v>0.05832003205041501</v>
       </c>
       <c r="X2">
-        <v>0.1385273476665318</v>
+        <v>0.1484922423686807</v>
       </c>
       <c r="Y2">
-        <v>-0.07705635212875675</v>
+        <v>-0.09017221031826568</v>
       </c>
       <c r="Z2">
-        <v>0.06614344167695405</v>
+        <v>0.06280066318404721</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04304534358996288</v>
+        <v>0.03742686091746164</v>
       </c>
       <c r="AC2">
-        <v>-0.04302209869563785</v>
+        <v>-0.03742686091746164</v>
       </c>
       <c r="AD2">
-        <v>65186.9</v>
+        <v>100493.2</v>
       </c>
       <c r="AE2">
-        <v>6.244213364342615</v>
+        <v>8.906058178379428</v>
       </c>
       <c r="AF2">
-        <v>65193.14421336434</v>
+        <v>100502.1060581784</v>
       </c>
       <c r="AG2">
-        <v>40697.44421336435</v>
+        <v>52539.50605817837</v>
       </c>
       <c r="AH2">
-        <v>0.7650938381842325</v>
+        <v>0.7853917170658946</v>
       </c>
       <c r="AI2">
-        <v>0.7784716674967208</v>
+        <v>0.8081981030014491</v>
       </c>
       <c r="AJ2">
-        <v>0.6703179283777202</v>
+        <v>0.6567298204862143</v>
       </c>
       <c r="AK2">
-        <v>0.6868842981081398</v>
+        <v>0.687773536458281</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>38367.80459093585</v>
+        <v>55736.66112035496</v>
       </c>
       <c r="AP2">
-        <v>23953.76351581186</v>
+        <v>29140.04773054818</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glarner Kantonalbank (SWX:GLKBN)</t>
+          <t>Basler Kantonalbank (SWX:BSKP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0718</v>
+        <v>-0.0102</v>
       </c>
       <c r="E3">
-        <v>0.0815</v>
+        <v>0.0328</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,82 +737,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23</v>
+        <v>114.4</v>
       </c>
       <c r="L3">
-        <v>0.2948717948717949</v>
+        <v>0.2060518731988473</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>136.359</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.04778155441866985</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.191949300699301</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>136.359</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.04778155441866985</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.191949300699301</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>680.4</v>
+        <v>8012.3</v>
       </c>
       <c r="V3">
-        <v>1.720353982300885</v>
+        <v>2.807589880159787</v>
       </c>
       <c r="W3">
-        <v>0.07010057909174032</v>
+        <v>0.02919409993364978</v>
       </c>
       <c r="X3">
-        <v>0.1614092324445895</v>
+        <v>0.1648430322959521</v>
       </c>
       <c r="Y3">
-        <v>-0.09130865335284923</v>
+        <v>-0.1356489323623024</v>
       </c>
       <c r="Z3">
-        <v>0.04344919786096257</v>
+        <v>0.05090028970625986</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.042166534842872</v>
+        <v>0.03604895666114637</v>
       </c>
       <c r="AC3">
-        <v>-0.042166534842872</v>
+        <v>-0.03604895666114637</v>
       </c>
       <c r="AD3">
-        <v>2354.9</v>
+        <v>17038.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2354.9</v>
+        <v>17038.6</v>
       </c>
       <c r="AG3">
-        <v>1674.5</v>
+        <v>9026.299999999999</v>
       </c>
       <c r="AH3">
-        <v>0.8562027341477604</v>
+        <v>0.8565381753835636</v>
       </c>
       <c r="AI3">
-        <v>0.8764375302393093</v>
+        <v>0.8062174694804579</v>
       </c>
       <c r="AJ3">
-        <v>0.8089371980676329</v>
+        <v>0.7597831668083602</v>
       </c>
       <c r="AK3">
-        <v>0.8345377523050087</v>
+        <v>0.6878910507022719</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basellandschaftliche Kantonalbank (SWX:BLKB)</t>
+          <t>Banque Cantonale Vaudoise (SWX:BCVN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,10 +841,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0024</v>
+        <v>-0.0126</v>
       </c>
       <c r="E4">
-        <v>0.0347</v>
+        <v>0.009990000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>138.6</v>
+        <v>357.2</v>
       </c>
       <c r="L4">
-        <v>0.3809785596481583</v>
+        <v>0.3461911223105253</v>
       </c>
       <c r="M4">
-        <v>77.90299999999999</v>
+        <v>326.04</v>
       </c>
       <c r="N4">
-        <v>0.03778031037827351</v>
+        <v>0.03490605427974947</v>
       </c>
       <c r="O4">
-        <v>0.5620707070707071</v>
+        <v>0.9127659574468084</v>
       </c>
       <c r="P4">
-        <v>77.90299999999999</v>
+        <v>326.04</v>
       </c>
       <c r="Q4">
-        <v>0.03778031037827351</v>
+        <v>0.03490605427974947</v>
       </c>
       <c r="R4">
-        <v>0.5620707070707071</v>
+        <v>0.9127659574468084</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -886,55 +889,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2821</v>
+        <v>10158.8</v>
       </c>
       <c r="V4">
-        <v>1.368089233753637</v>
+        <v>1.08760772977892</v>
       </c>
       <c r="W4">
-        <v>0.05843170320404722</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="X4">
-        <v>0.1049896332714965</v>
+        <v>0.06649550579288399</v>
       </c>
       <c r="Y4">
-        <v>-0.04655793006744924</v>
+        <v>0.03593037021789768</v>
       </c>
       <c r="Z4">
-        <v>0.04799725579186237</v>
+        <v>0.1271577567094264</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04230715190719227</v>
+        <v>0.03611069904751882</v>
       </c>
       <c r="AC4">
-        <v>-0.04230715190719227</v>
+        <v>-0.03611069904751882</v>
       </c>
       <c r="AD4">
-        <v>6409</v>
+        <v>13571.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>6409</v>
+        <v>13571.5</v>
       </c>
       <c r="AG4">
-        <v>3588</v>
+        <v>3412.700000000001</v>
       </c>
       <c r="AH4">
-        <v>0.7565812772990201</v>
+        <v>0.592331529329609</v>
       </c>
       <c r="AI4">
-        <v>0.7211251758087202</v>
+        <v>0.7891095153647121</v>
       </c>
       <c r="AJ4">
-        <v>0.6350442477876106</v>
+        <v>0.2675955838534643</v>
       </c>
       <c r="AK4">
-        <v>0.591444819912635</v>
+        <v>0.4847791809310056</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -951,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banque Cantonale Vaudoise (SWX:BCVN)</t>
+          <t>Basellandschaftliche Kantonalbank (SWX:BLKB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.006730000000000001</v>
+        <v>0.0207</v>
       </c>
       <c r="E5">
-        <v>0.0401</v>
+        <v>0.0294</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,28 +981,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>353</v>
+        <v>144.4</v>
       </c>
       <c r="L5">
-        <v>0.3496434231378764</v>
+        <v>0.3752598752598753</v>
       </c>
       <c r="M5">
-        <v>308.022</v>
+        <v>80.28999999999999</v>
       </c>
       <c r="N5">
-        <v>0.04401131638732907</v>
+        <v>0.03482541747993927</v>
       </c>
       <c r="O5">
-        <v>0.8725835694050992</v>
+        <v>0.5560249307479224</v>
       </c>
       <c r="P5">
-        <v>308.022</v>
+        <v>80.28999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.04401131638732907</v>
+        <v>0.03482541747993927</v>
       </c>
       <c r="R5">
-        <v>0.8725835694050992</v>
+        <v>0.5560249307479224</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1008,55 +1011,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>7915.6</v>
+        <v>4425</v>
       </c>
       <c r="V5">
-        <v>1.131010044722591</v>
+        <v>1.91932335718933</v>
       </c>
       <c r="W5">
-        <v>0.1043483401815011</v>
+        <v>0.05826104498688723</v>
       </c>
       <c r="X5">
-        <v>0.07892164531445128</v>
+        <v>0.1171980110176201</v>
       </c>
       <c r="Y5">
-        <v>0.02542669486704979</v>
+        <v>-0.05893696603073285</v>
       </c>
       <c r="Z5">
-        <v>0.1394899002459311</v>
+        <v>0.06343031401961592</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0424689118834406</v>
+        <v>0.0365286168500065</v>
       </c>
       <c r="AC5">
-        <v>-0.0424689118834406</v>
+        <v>-0.0365286168500065</v>
       </c>
       <c r="AD5">
-        <v>12549.7</v>
+        <v>8719.299999999999</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>12549.7</v>
+        <v>8719.299999999999</v>
       </c>
       <c r="AG5">
-        <v>4634.1</v>
+        <v>4294.299999999999</v>
       </c>
       <c r="AH5">
-        <v>0.6419809293855252</v>
+        <v>0.790880560191568</v>
       </c>
       <c r="AI5">
-        <v>0.7825417313604081</v>
+        <v>0.7667812827029451</v>
       </c>
       <c r="AJ5">
-        <v>0.3983649680214566</v>
+        <v>0.6506712324615898</v>
       </c>
       <c r="AK5">
-        <v>0.5705965646740134</v>
+        <v>0.6182140132156687</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1073,7 +1076,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bank Linth LLB AG (SWX:LINN)</t>
+          <t>Zuger Kantonalbank (SWX:ZUGER)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,10 +1085,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0246</v>
+        <v>0.0187</v>
       </c>
       <c r="E6">
-        <v>0.05599999999999999</v>
+        <v>0.0382</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1094,34 +1097,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003273442594115624</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002652999320892478</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>26.4</v>
+        <v>78.8</v>
       </c>
       <c r="L6">
-        <v>0.2647943831494483</v>
+        <v>0.3581818181818182</v>
       </c>
       <c r="M6">
-        <v>7.422100000000001</v>
+        <v>66.9024</v>
       </c>
       <c r="N6">
-        <v>0.01835790254761316</v>
+        <v>0.03216306908321716</v>
       </c>
       <c r="O6">
-        <v>0.2811401515151516</v>
+        <v>0.849015228426396</v>
       </c>
       <c r="P6">
-        <v>7.422100000000001</v>
+        <v>66.9024</v>
       </c>
       <c r="Q6">
-        <v>0.01835790254761316</v>
+        <v>0.03216306908321716</v>
       </c>
       <c r="R6">
-        <v>0.2811401515151516</v>
+        <v>0.849015228426396</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1130,67 +1133,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1031.5</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.551323274795943</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.05495420482930891</v>
+        <v>0.0583790191139428</v>
       </c>
       <c r="X6">
-        <v>0.1492283036050047</v>
+        <v>0.09008754881010719</v>
       </c>
       <c r="Y6">
-        <v>-0.09427409877569576</v>
+        <v>-0.03170852969616439</v>
       </c>
       <c r="Z6">
-        <v>0.05765444633855903</v>
+        <v>0.03854172141343003</v>
       </c>
       <c r="AA6">
-        <v>0.0001529572069826289</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04301499668486569</v>
+        <v>0.03720002234182965</v>
       </c>
       <c r="AC6">
-        <v>-0.04286203947788306</v>
+        <v>-0.03720002234182965</v>
       </c>
       <c r="AD6">
-        <v>2153.4</v>
+        <v>5276.5</v>
       </c>
       <c r="AE6">
-        <v>5.468188866833361</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2158.868188866833</v>
+        <v>5276.5</v>
       </c>
       <c r="AG6">
-        <v>1127.368188866833</v>
+        <v>5276.5</v>
       </c>
       <c r="AH6">
-        <v>0.8422655205553485</v>
+        <v>0.7172470978441128</v>
       </c>
       <c r="AI6">
-        <v>0.8070932982239415</v>
+        <v>0.7879842298617127</v>
       </c>
       <c r="AJ6">
-        <v>0.7360394353432963</v>
+        <v>0.7172470978441128</v>
       </c>
       <c r="AK6">
-        <v>0.6860107165906612</v>
+        <v>0.7879842298617127</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>1516.478873239437</v>
-      </c>
-      <c r="AP6">
-        <v>793.9212597653757</v>
       </c>
     </row>
     <row r="7">
@@ -1201,7 +1198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valiant Holding AG (SWX:VATN)</t>
+          <t>Walliser Kantonalbank (SWX:WKBN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1210,10 +1207,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0327</v>
+        <v>0.0146</v>
       </c>
       <c r="E7">
-        <v>0.0964</v>
+        <v>0.0354</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1222,91 +1219,88 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-0.000381723935014309</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0.0003073677438223938</v>
       </c>
       <c r="K7">
-        <v>121.9</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L7">
-        <v>0.3024063507814438</v>
+        <v>0.2810276679841897</v>
       </c>
       <c r="M7">
-        <v>69.67800000000001</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.04341308411214954</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.5715996718621822</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>69.67800000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.04341308411214954</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.5715996718621822</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>2901.1</v>
+        <v>3326.9</v>
       </c>
       <c r="V7">
-        <v>1.807538940809969</v>
+        <v>1.782522503214745</v>
       </c>
       <c r="W7">
-        <v>0.05331991951710262</v>
+        <v>0.05076033411865495</v>
       </c>
       <c r="X7">
-        <v>0.1421594114114406</v>
+        <v>0.1068370835460204</v>
       </c>
       <c r="Y7">
-        <v>-0.08883949189433801</v>
+        <v>-0.0560767494273654</v>
       </c>
       <c r="Z7">
-        <v>0.05766562236241649</v>
+        <v>0.06287303089895298</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-1.932514165468683e-05</v>
       </c>
       <c r="AB7">
-        <v>0.04301901565295868</v>
+        <v>0.03736456987346429</v>
       </c>
       <c r="AC7">
-        <v>-0.04301901565295868</v>
+        <v>-0.03738389501511898</v>
       </c>
       <c r="AD7">
-        <v>7998</v>
+        <v>6169.9</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.482880777793101</v>
       </c>
       <c r="AF7">
-        <v>7998</v>
+        <v>6170.382880777793</v>
       </c>
       <c r="AG7">
-        <v>5096.9</v>
+        <v>2843.482880777793</v>
       </c>
       <c r="AH7">
-        <v>0.8328647297719463</v>
+        <v>0.76776777129764</v>
       </c>
       <c r="AI7">
-        <v>0.7774937055867172</v>
+        <v>0.8047573698513225</v>
       </c>
       <c r="AJ7">
-        <v>0.7605156746594249</v>
+        <v>0.6037268766029736</v>
       </c>
       <c r="AK7">
-        <v>0.6900945056730483</v>
+        <v>0.6551074981473617</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1323,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>St. Galler Kantonalbank AG (SWX:SGKN)</t>
+          <t>Thurgauer Kantonalbank (SWX:TKBP)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1332,10 +1326,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0302</v>
+        <v>0.007229999999999999</v>
       </c>
       <c r="E8">
-        <v>0.0646</v>
+        <v>-0.00545</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1344,34 +1338,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0003851928461498533</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0003175709631989988</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>163.9</v>
+        <v>140.8</v>
       </c>
       <c r="L8">
-        <v>0.333130081300813</v>
+        <v>0.3943977591036415</v>
       </c>
       <c r="M8">
-        <v>98.072</v>
+        <v>59.2</v>
       </c>
       <c r="N8">
-        <v>0.03523207357378934</v>
+        <v>0.02506138345610025</v>
       </c>
       <c r="O8">
-        <v>0.5983648566198901</v>
+        <v>0.4204545454545454</v>
       </c>
       <c r="P8">
-        <v>98.072</v>
+        <v>59.2</v>
       </c>
       <c r="Q8">
-        <v>0.03523207357378934</v>
+        <v>0.02506138345610025</v>
       </c>
       <c r="R8">
-        <v>0.5983648566198901</v>
+        <v>0.4204545454545454</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1380,67 +1374,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4073.1</v>
+        <v>4205.3</v>
       </c>
       <c r="V8">
-        <v>1.463249030033051</v>
+        <v>1.780247227161121</v>
       </c>
       <c r="W8">
-        <v>0.07336615935541629</v>
+        <v>0.06255275667510773</v>
       </c>
       <c r="X8">
-        <v>0.1102236082512972</v>
+        <v>0.115040185093139</v>
       </c>
       <c r="Y8">
-        <v>-0.03685744889588094</v>
+        <v>-0.05248742841803122</v>
       </c>
       <c r="Z8">
-        <v>0.07319590585636231</v>
+        <v>0.05210005545664165</v>
       </c>
       <c r="AA8">
-        <v>2.324489432502821e-05</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04304534358996288</v>
+        <v>0.03742543247383001</v>
       </c>
       <c r="AC8">
-        <v>-0.04302209869563785</v>
+        <v>-0.03742543247383001</v>
       </c>
       <c r="AD8">
-        <v>9386.5</v>
+        <v>8699.6</v>
       </c>
       <c r="AE8">
-        <v>0.2874255984713608</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>9386.787425598472</v>
+        <v>8699.6</v>
       </c>
       <c r="AG8">
-        <v>5313.687425598471</v>
+        <v>4494.3</v>
       </c>
       <c r="AH8">
-        <v>0.7712809048177759</v>
+        <v>0.7864542841128931</v>
       </c>
       <c r="AI8">
-        <v>0.7874169387547378</v>
+        <v>0.7861628968271898</v>
       </c>
       <c r="AJ8">
-        <v>0.6562305555314699</v>
+        <v>0.655480201268869</v>
       </c>
       <c r="AK8">
-        <v>0.6770850723808969</v>
+        <v>0.6550884762265691</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>38002.02429149798</v>
-      </c>
-      <c r="AP8">
-        <v>21512.90455707883</v>
       </c>
     </row>
     <row r="9">
@@ -1451,7 +1439,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Walliser Kantonalbank (SWX:WKBN)</t>
+          <t>Glarner Kantonalbank (SWX:GLKBN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1460,10 +1448,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.015</v>
+        <v>0.06570000000000001</v>
       </c>
       <c r="E9">
-        <v>0.0348</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1472,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.0002639348586649743</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.0002123087115418486</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>69.5</v>
+        <v>28.7</v>
       </c>
       <c r="L9">
-        <v>0.2791164658634538</v>
+        <v>0.3246606334841629</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1505,67 +1493,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2708.9</v>
+        <v>1198</v>
       </c>
       <c r="V9">
-        <v>1.47519468496433</v>
+        <v>3.093209398399174</v>
       </c>
       <c r="W9">
-        <v>0.052275291462956</v>
+        <v>0.08644578313253012</v>
       </c>
       <c r="X9">
-        <v>0.1009380985127205</v>
+        <v>0.1934499626646111</v>
       </c>
       <c r="Y9">
-        <v>-0.04866280704976445</v>
+        <v>-0.1070041795320809</v>
       </c>
       <c r="Z9">
-        <v>0.06367653589980941</v>
+        <v>0.04405681535011214</v>
       </c>
       <c r="AA9">
-        <v>-1.35190832923368e-05</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0430570761467423</v>
+        <v>0.03742828936109328</v>
       </c>
       <c r="AC9">
-        <v>-0.04307059523003463</v>
+        <v>-0.03742828936109328</v>
       </c>
       <c r="AD9">
-        <v>5331.7</v>
+        <v>2821.3</v>
       </c>
       <c r="AE9">
-        <v>0.4885988990378931</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>5332.188598899038</v>
+        <v>2821.3</v>
       </c>
       <c r="AG9">
-        <v>2623.288598899038</v>
+        <v>1623.3</v>
       </c>
       <c r="AH9">
-        <v>0.743837215520992</v>
+        <v>0.8792931496602879</v>
       </c>
       <c r="AI9">
-        <v>0.79196150665124</v>
+        <v>0.8810505277621635</v>
       </c>
       <c r="AJ9">
-        <v>0.5882355604610396</v>
+        <v>0.8073709340495375</v>
       </c>
       <c r="AK9">
-        <v>0.6519125326589565</v>
+        <v>0.8099491068755613</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>166615.625</v>
-      </c>
-      <c r="AP9">
-        <v>81977.76871559494</v>
       </c>
     </row>
     <row r="10">
@@ -1576,7 +1558,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zuger Kantonalbank (SWX:ZG)</t>
+          <t>St. Galler Kantonalbank AG (SWX:SGKN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1585,10 +1567,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.00284</v>
+        <v>0.021</v>
       </c>
       <c r="E10">
-        <v>0.04969999999999999</v>
+        <v>0.00919</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1597,34 +1579,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0002502793198079939</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.000209126008832854</v>
       </c>
       <c r="K10">
-        <v>79.90000000000001</v>
+        <v>174.3</v>
       </c>
       <c r="L10">
-        <v>0.3813842482100239</v>
+        <v>0.3373330752854655</v>
       </c>
       <c r="M10">
-        <v>64.94399999999999</v>
+        <v>101.062</v>
       </c>
       <c r="N10">
-        <v>0.03459989344698987</v>
+        <v>0.03602281233291748</v>
       </c>
       <c r="O10">
-        <v>0.8128160200250311</v>
+        <v>0.5798164084911073</v>
       </c>
       <c r="P10">
-        <v>64.94399999999999</v>
+        <v>101.062</v>
       </c>
       <c r="Q10">
-        <v>0.03459989344698987</v>
+        <v>0.03602281233291748</v>
       </c>
       <c r="R10">
-        <v>0.8128160200250311</v>
+        <v>0.5798164084911073</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1633,61 +1615,67 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>7963.1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.838388878987703</v>
       </c>
       <c r="W10">
-        <v>0.06147099553777505</v>
+        <v>0.06877910188619683</v>
       </c>
       <c r="X10">
-        <v>0.08940439739930625</v>
+        <v>0.1321414524414093</v>
       </c>
       <c r="Y10">
-        <v>-0.0279334018615312</v>
+        <v>-0.06336235055521243</v>
       </c>
       <c r="Z10">
-        <v>0.04058425834447221</v>
+        <v>0.06589268245851633</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.377987369384013e-05</v>
       </c>
       <c r="AB10">
-        <v>0.0430762566546113</v>
+        <v>0.03752534504838251</v>
       </c>
       <c r="AC10">
-        <v>-0.0430762566546113</v>
+        <v>-0.03751156517468867</v>
       </c>
       <c r="AD10">
-        <v>4358.3</v>
+        <v>12535.8</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.2184033772760477</v>
       </c>
       <c r="AF10">
-        <v>4358.3</v>
+        <v>12536.01840337727</v>
       </c>
       <c r="AG10">
-        <v>4358.3</v>
+        <v>4572.918403377274</v>
       </c>
       <c r="AH10">
-        <v>0.6989719821019037</v>
+        <v>0.8171302262113509</v>
       </c>
       <c r="AI10">
-        <v>0.7635290201643279</v>
+        <v>0.8236424781260436</v>
       </c>
       <c r="AJ10">
-        <v>0.6989719821019037</v>
+        <v>0.6197694618787331</v>
       </c>
       <c r="AK10">
-        <v>0.7635290201643279</v>
+        <v>0.6301286749364813</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>72461.27167630057</v>
+      </c>
+      <c r="AP10">
+        <v>26433.05435478194</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +1686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Banque Cantonale de Genève SA (SWX:BCGE)</t>
+          <t>Valiant Holding AG (SWX:VATN)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1707,10 +1695,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0431</v>
+        <v>0.0308</v>
       </c>
       <c r="E11">
-        <v>0.0451</v>
+        <v>0.0254</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1725,28 +1713,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>100.8</v>
+        <v>133.2</v>
       </c>
       <c r="L11">
-        <v>0.2424242424242424</v>
+        <v>0.2997299729972997</v>
       </c>
       <c r="M11">
-        <v>18.2272</v>
+        <v>86.11000000000001</v>
       </c>
       <c r="N11">
-        <v>0.01274451125716683</v>
+        <v>0.05577072538860105</v>
       </c>
       <c r="O11">
-        <v>0.1808253968253968</v>
+        <v>0.6464714714714717</v>
       </c>
       <c r="P11">
-        <v>18.2272</v>
+        <v>86.11000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.01274451125716683</v>
+        <v>0.05577072538860105</v>
       </c>
       <c r="R11">
-        <v>0.1808253968253968</v>
+        <v>0.6464714714714717</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1755,55 +1743,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>6201.5</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>4.016515544041451</v>
       </c>
       <c r="W11">
-        <v>0.06598586017282011</v>
+        <v>0.05819389226265891</v>
       </c>
       <c r="X11">
-        <v>0.1385273476665318</v>
+        <v>0.19082709420588</v>
       </c>
       <c r="Y11">
-        <v>-0.07254148749371168</v>
+        <v>-0.1326332019432211</v>
       </c>
       <c r="Z11">
-        <v>0.05414273995077933</v>
+        <v>0.06016951447371984</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.0435302375779284</v>
+        <v>0.03772200999499249</v>
       </c>
       <c r="AC11">
-        <v>-0.0435302375779284</v>
+        <v>-0.03772200999499249</v>
       </c>
       <c r="AD11">
-        <v>6864.9</v>
+        <v>11061.3</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>6864.9</v>
+        <v>11061.3</v>
       </c>
       <c r="AG11">
-        <v>6864.9</v>
+        <v>4859.799999999999</v>
       </c>
       <c r="AH11">
-        <v>0.8275849597955419</v>
+        <v>0.8775118402576694</v>
       </c>
       <c r="AI11">
-        <v>0.8054463751451936</v>
+        <v>0.8134564896050125</v>
       </c>
       <c r="AJ11">
-        <v>0.8275849597955419</v>
+        <v>0.7588931571879196</v>
       </c>
       <c r="AK11">
-        <v>0.8054463751451936</v>
+        <v>0.6570493753718024</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1829,10 +1817,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.00054</v>
+        <v>0.0173</v>
       </c>
       <c r="E12">
-        <v>-0.00077</v>
+        <v>0.0424</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1847,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.380000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="L12">
-        <v>0.2052516411378556</v>
+        <v>0.2015968063872255</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1874,55 +1862,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>337.7</v>
+        <v>764.6</v>
       </c>
       <c r="V12">
-        <v>1.94864396999423</v>
+        <v>4.341851220897218</v>
       </c>
       <c r="W12">
-        <v>0.0386326194398682</v>
+        <v>0.03956130043086564</v>
       </c>
       <c r="X12">
-        <v>0.1752423788735061</v>
+        <v>0.24058711090054</v>
       </c>
       <c r="Y12">
-        <v>-0.1366097594336379</v>
+        <v>-0.2010258104696744</v>
       </c>
       <c r="Z12">
-        <v>0.04963075586446568</v>
+        <v>0.04680493273542602</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.0499892559073815</v>
+        <v>0.03780927256906048</v>
       </c>
       <c r="AC12">
-        <v>-0.0499892559073815</v>
+        <v>-0.03780927256906048</v>
       </c>
       <c r="AD12">
-        <v>1152.8</v>
+        <v>1664.1</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1152.8</v>
+        <v>1664.1</v>
       </c>
       <c r="AG12">
-        <v>815.0999999999999</v>
+        <v>899.4999999999999</v>
       </c>
       <c r="AH12">
-        <v>0.8693160395143654</v>
+        <v>0.9043038800130421</v>
       </c>
       <c r="AI12">
-        <v>0.8186918542717136</v>
+        <v>0.8598666873352968</v>
       </c>
       <c r="AJ12">
-        <v>0.8246661270740591</v>
+        <v>0.8362774265526217</v>
       </c>
       <c r="AK12">
-        <v>0.7614910313901345</v>
+        <v>0.7683437259759118</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1939,7 +1927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thurgauer Kantonalbank (SWX:TKBP)</t>
+          <t>Banque Cantonale de Genève SA (SWX:BCGE)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1948,10 +1936,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0306</v>
+        <v>0.0179</v>
       </c>
       <c r="E13">
-        <v>0.0423</v>
+        <v>0.0337</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1966,28 +1954,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>136.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L13">
-        <v>0.3937823834196892</v>
+        <v>0.2423418972332016</v>
       </c>
       <c r="M13">
-        <v>11.48</v>
+        <v>18.8232</v>
       </c>
       <c r="N13">
-        <v>0.0254941150344215</v>
+        <v>0.01469299820466786</v>
       </c>
       <c r="O13">
-        <v>0.08391812865497075</v>
+        <v>0.1918776758409786</v>
       </c>
       <c r="P13">
-        <v>11.48</v>
+        <v>18.8232</v>
       </c>
       <c r="Q13">
-        <v>0.0254941150344215</v>
+        <v>0.01469299820466786</v>
       </c>
       <c r="R13">
-        <v>0.08391812865497075</v>
+        <v>0.1918776758409786</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1996,61 +1984,189 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2026.4</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>4.500111037086387</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.06445837063563116</v>
+        <v>0.05917480998914224</v>
       </c>
       <c r="X13">
-        <v>0.3351464039203109</v>
+        <v>0.2012003705285782</v>
       </c>
       <c r="Y13">
-        <v>-0.2706880332846798</v>
+        <v>-0.142025560539436</v>
       </c>
       <c r="Z13">
-        <v>0.05413069899342454</v>
+        <v>0.04749668532272637</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05049951365997683</v>
+        <v>0.03833425136011914</v>
       </c>
       <c r="AC13">
-        <v>-0.05049951365997683</v>
+        <v>-0.03833425136011914</v>
       </c>
       <c r="AD13">
-        <v>6627.7</v>
+        <v>9788.299999999999</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>6627.7</v>
+        <v>9788.299999999999</v>
       </c>
       <c r="AG13">
-        <v>4601.299999999999</v>
+        <v>9788.299999999999</v>
       </c>
       <c r="AH13">
-        <v>0.9363803334275219</v>
+        <v>0.884266536578315</v>
       </c>
       <c r="AI13">
-        <v>0.7464803009483476</v>
+        <v>0.846995197507896</v>
       </c>
       <c r="AJ13">
-        <v>0.9108599255681368</v>
+        <v>0.884266536578315</v>
       </c>
       <c r="AK13">
-        <v>0.671506961267914</v>
+        <v>0.846995197507896</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bank Linth LLB AG (SWX:LINN)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.0248</v>
+      </c>
+      <c r="E14">
+        <v>0.0541</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-0.0001106545925460225</v>
+      </c>
+      <c r="J14">
+        <v>-9.474799486753176e-05</v>
+      </c>
+      <c r="K14">
+        <v>27.4</v>
+      </c>
+      <c r="L14">
+        <v>0.2767676767676768</v>
+      </c>
+      <c r="M14">
+        <v>8.532999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.01856210572112247</v>
+      </c>
+      <c r="O14">
+        <v>0.3114233576642336</v>
+      </c>
+      <c r="P14">
+        <v>8.532999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.01856210572112247</v>
+      </c>
+      <c r="R14">
+        <v>0.3114233576642336</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1707.1</v>
+      </c>
+      <c r="V14">
+        <v>3.713508810093539</v>
+      </c>
+      <c r="W14">
+        <v>0.05310077519379845</v>
+      </c>
+      <c r="X14">
+        <v>0.1842865022517269</v>
+      </c>
+      <c r="Y14">
+        <v>-0.1311857270579284</v>
+      </c>
+      <c r="Z14">
+        <v>0.06014197975869431</v>
+      </c>
+      <c r="AA14">
+        <v>-5.698331989499968e-06</v>
+      </c>
+      <c r="AB14">
+        <v>0.0457195825438608</v>
+      </c>
+      <c r="AC14">
+        <v>-0.0457252808758503</v>
+      </c>
+      <c r="AD14">
+        <v>3147</v>
+      </c>
+      <c r="AE14">
+        <v>8.20477402331028</v>
+      </c>
+      <c r="AF14">
+        <v>3155.20477402331</v>
+      </c>
+      <c r="AG14">
+        <v>1448.10477402331</v>
+      </c>
+      <c r="AH14">
+        <v>0.8728320581766352</v>
+      </c>
+      <c r="AI14">
+        <v>0.8509400770289239</v>
+      </c>
+      <c r="AJ14">
+        <v>0.7590424312491089</v>
+      </c>
+      <c r="AK14">
+        <v>0.7237611549233735</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1930.674846625767</v>
+      </c>
+      <c r="AP14">
+        <v>888.4078368241168</v>
       </c>
     </row>
   </sheetData>
